--- a/resultOfExample5-0.xlsx
+++ b/resultOfExample5-0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kushidatatsuya/Downloads/sample2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C31F0D-7CD8-D343-B62A-4CFAAE6E15CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F70F20-324E-694D-AAC1-A604CDBCF348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="820" windowWidth="28300" windowHeight="17440" xr2:uid="{BCBBBF6E-2FE0-184C-B05D-62B7A9E8A3D2}"/>
+    <workbookView xWindow="-32440" yWindow="3220" windowWidth="28300" windowHeight="17440" xr2:uid="{BCBBBF6E-2FE0-184C-B05D-62B7A9E8A3D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>mouse</t>
   </si>
@@ -320,15 +320,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Novel protein</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://rdf.ebi.ac.uk/resource/ensembl/ENSG00000174697</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Gene: LEP (ENSG00000174697)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://rdf.ebi.ac.uk/resource/ensembl/ENSG00000288674</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Novel protein (ENSG00000288674)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FA308A-37D7-7C4C-B9A2-3646092447AF}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -906,10 +910,10 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -991,10 +995,10 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
